--- a/Spec_Sheet_And_Process_Summary.xlsx
+++ b/Spec_Sheet_And_Process_Summary.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendallridge/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9C27E5-0CBF-4B42-9142-E88FB0A58891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FB4343-D2F3-F347-8558-198B29C823B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{7E0C0133-8937-4EFD-82DE-21ABAF91305B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="5" xr2:uid="{7E0C0133-8937-4EFD-82DE-21ABAF91305B}"/>
   </bookViews>
   <sheets>
     <sheet name="Original GradRate variables" sheetId="1" r:id="rId1"/>
     <sheet name="RegModel_Median" sheetId="5" r:id="rId2"/>
     <sheet name="Over200_Median" sheetId="6" r:id="rId3"/>
     <sheet name="Over400_Median" sheetId="7" r:id="rId4"/>
+    <sheet name="Model1" sheetId="8" r:id="rId5"/>
+    <sheet name="Model2" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="116">
   <si>
     <t>Variable</t>
   </si>
@@ -267,6 +269,7 @@
         <sz val="9.5"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>OutStateT</t>
     </r>
@@ -297,6 +300,7 @@
         <sz val="9.5"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>out-of-state</t>
     </r>
@@ -326,6 +330,7 @@
         <sz val="9.5"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>OutStateF</t>
     </r>
@@ -356,6 +361,7 @@
         <sz val="9.5"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>out-of-state</t>
     </r>
@@ -471,6 +477,12 @@
   </si>
   <si>
     <t>* This table is filtered for cohort size &gt; 200</t>
+  </si>
+  <si>
+    <t>Variables not kept in the model</t>
+  </si>
+  <si>
+    <t>Variables kept in the model</t>
   </si>
 </sst>
 </file>
@@ -492,6 +504,7 @@
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -515,7 +528,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +563,60 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFAFBFE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF67C7E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF67C7E"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF67C7E"/>
+        <bgColor rgb="FFFAFBFE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFAFBFE"/>
       </patternFill>
     </fill>
   </fills>
@@ -630,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -701,16 +768,530 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFAFBFE"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFC1C1C1"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC1C1C1"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFC1C1C1"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFC1C1C1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFAFBFE"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1529,6 +2110,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF67C7E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1541,64 +2127,96 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A9553F2-E710-4D36-8107-A31F252E07E8}" name="Table2" displayName="Table2" ref="A2:G34" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A9553F2-E710-4D36-8107-A31F252E07E8}" name="Table2" displayName="Table2" ref="A2:G34" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A2:G34" xr:uid="{1A9553F2-E710-4D36-8107-A31F252E07E8}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{2034FB47-21B1-4249-978F-27B069BB85B3}" name="Variable" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{5A1577E3-AF40-4B62-91EB-BC3ABFF780EE}" name="Type" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{CFE40E46-0D4A-4E15-992F-BDB8191CCF98}" name="Length" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{F3B9CA11-7C85-4585-8C07-37E57023C7A5}" name="Label" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{60D6E0C6-63B6-4833-A298-1C2260194564}" name="Format" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{97127639-2D77-4C21-A5C5-5417262AB66F}" name="Source Variables/Tables" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{F59D4509-DAE5-4DFA-8F4A-7577D70EFE01}" name="Rationale" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{2034FB47-21B1-4249-978F-27B069BB85B3}" name="Variable" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{5A1577E3-AF40-4B62-91EB-BC3ABFF780EE}" name="Type" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{CFE40E46-0D4A-4E15-992F-BDB8191CCF98}" name="Length" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{F3B9CA11-7C85-4585-8C07-37E57023C7A5}" name="Label" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{60D6E0C6-63B6-4833-A298-1C2260194564}" name="Format" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{97127639-2D77-4C21-A5C5-5417262AB66F}" name="Source Variables/Tables" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{F59D4509-DAE5-4DFA-8F4A-7577D70EFE01}" name="Rationale" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91C46798-A3D7-D54A-BF7D-954EC1359181}" name="Table22" displayName="Table22" ref="A1:G29" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91C46798-A3D7-D54A-BF7D-954EC1359181}" name="Table22" displayName="Table22" ref="A1:G29" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A1:G29" xr:uid="{91C46798-A3D7-D54A-BF7D-954EC1359181}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BAE2C877-7131-3548-93D0-F1A85CD6BF17}" name="Variable" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{D4DD5477-21B9-6840-92E1-E96CA569DE87}" name="Type" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{CD27CDA3-CB22-6F4F-9B20-8A74382F6DA3}" name="Length" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{7B9D33DE-7230-6440-A4B8-6BD9B3387D0B}" name="Label" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{36EB1FF7-722E-B247-81FC-AD41D68B5C6B}" name="Format" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{E4831BB7-BF52-754B-BEE4-0DF1C21AE1F0}" name="Source Variables/Tables" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{1A71904C-219A-DB4C-A380-BD60CECAD8DC}" name="Rationale" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{BAE2C877-7131-3548-93D0-F1A85CD6BF17}" name="Variable" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{D4DD5477-21B9-6840-92E1-E96CA569DE87}" name="Type" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{CD27CDA3-CB22-6F4F-9B20-8A74382F6DA3}" name="Length" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{7B9D33DE-7230-6440-A4B8-6BD9B3387D0B}" name="Label" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{36EB1FF7-722E-B247-81FC-AD41D68B5C6B}" name="Format" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{E4831BB7-BF52-754B-BEE4-0DF1C21AE1F0}" name="Source Variables/Tables" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{1A71904C-219A-DB4C-A380-BD60CECAD8DC}" name="Rationale" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{22262AB9-11BF-A14B-A683-D6904C33E7E8}" name="Table224" displayName="Table224" ref="A1:G29" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{22262AB9-11BF-A14B-A683-D6904C33E7E8}" name="Table224" displayName="Table224" ref="A1:G29" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:G29" xr:uid="{22262AB9-11BF-A14B-A683-D6904C33E7E8}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D9481C59-957C-3843-B17D-1F648B4E72BB}" name="Variable" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{E3B1D2A6-237C-4044-ABF3-961AF7E8FDCD}" name="Type" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{7A441B76-A97C-514C-9059-312E084FC08C}" name="Length" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{7C5CFBF0-4680-B441-843F-B256C065F576}" name="Label" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{24B90AF8-EE01-3C4B-BD52-B45E6BD0D46A}" name="Format" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{A3F91580-DDA8-AA4A-850E-4615F440EBBF}" name="Source Variables/Tables" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{FAD8D715-D719-5949-B0ED-C62E6A223E51}" name="Rationale" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{D9481C59-957C-3843-B17D-1F648B4E72BB}" name="Variable" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{E3B1D2A6-237C-4044-ABF3-961AF7E8FDCD}" name="Type" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{7A441B76-A97C-514C-9059-312E084FC08C}" name="Length" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{7C5CFBF0-4680-B441-843F-B256C065F576}" name="Label" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{24B90AF8-EE01-3C4B-BD52-B45E6BD0D46A}" name="Format" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{A3F91580-DDA8-AA4A-850E-4615F440EBBF}" name="Source Variables/Tables" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{FAD8D715-D719-5949-B0ED-C62E6A223E51}" name="Rationale" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{74299CB4-64DE-2942-962E-F39A4743342C}" name="Table2245" displayName="Table2245" ref="A1:G29" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{74299CB4-64DE-2942-962E-F39A4743342C}" name="Table2245" displayName="Table2245" ref="A1:G29" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:G29" xr:uid="{74299CB4-64DE-2942-962E-F39A4743342C}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{ECB4A49C-3B49-7F42-9B2B-D7BA093D2A0F}" name="Variable" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{810C3A9A-4295-5844-8D85-7AE5EEDE239F}" name="Type" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{EC4A6EE5-7213-CA47-9FC1-A54319850163}" name="Length" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{55F616B3-A19B-DF4B-B4F4-E47F8014AFAA}" name="Label" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{74A403A5-9BC6-C544-8F5B-8CF4528DA990}" name="Format" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{352A00B7-4D66-2E42-B3AB-01F42D32F6F2}" name="Source Variables/Tables" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{C7BE1601-9FE0-9A4D-A9DB-74E297CFD5ED}" name="Rationale" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{ECB4A49C-3B49-7F42-9B2B-D7BA093D2A0F}" name="Variable" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{810C3A9A-4295-5844-8D85-7AE5EEDE239F}" name="Type" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{EC4A6EE5-7213-CA47-9FC1-A54319850163}" name="Length" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{55F616B3-A19B-DF4B-B4F4-E47F8014AFAA}" name="Label" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{74A403A5-9BC6-C544-8F5B-8CF4528DA990}" name="Format" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{352A00B7-4D66-2E42-B3AB-01F42D32F6F2}" name="Source Variables/Tables" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{C7BE1601-9FE0-9A4D-A9DB-74E297CFD5ED}" name="Rationale" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A278564E-1883-E343-B557-4EE3774C017B}" name="Table2267" displayName="Table2267" ref="A1:G29" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:G29" xr:uid="{A278564E-1883-E343-B557-4EE3774C017B}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{9C2C5AB8-BE2A-A54C-AB3C-3F4D3F7C67EE}" name="Variable" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{2B26A84B-D1CA-0946-984A-E4F32D6E2E5D}" name="Type" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{2C8D2FF9-AE43-A649-9D5B-DC9CADFEAC2E}" name="Length" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{8B1E2BA2-2C15-434C-9AFE-8F173B577734}" name="Label" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{851B2053-3700-424C-BFFF-1BD6F8FA12DF}" name="Format" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{F29802E1-D61E-3247-A828-3384CC0B25BE}" name="Source Variables/Tables" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{12839B8F-1262-A84A-AF83-DA1268A8475F}" name="Rationale" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{67BE6204-7133-6646-84F7-9C7A3EE0BA26}" name="Table226" displayName="Table226" ref="A1:G29" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G29" xr:uid="{67BE6204-7133-6646-84F7-9C7A3EE0BA26}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3BA201D1-6C1B-C942-9AC9-DCD1A7C68CFF}" name="Variable" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{CFAF1876-1BC0-C54E-ADB7-1953B175C16F}" name="Type" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{0A3118B4-C5B7-EF47-AC4D-B6B18314A296}" name="Length" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{FDB4D8ED-E56F-0242-B345-47E1E1DEBB7E}" name="Label" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{0FFAD389-3632-604B-A32F-6C599C8160E1}" name="Format" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{94984EE8-B142-B548-8588-8198E384B19D}" name="Source Variables/Tables" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{2F641268-3319-0C42-A4E8-AB26E272042D}" name="Rationale" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1939,15 +2557,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" ht="52.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
@@ -2701,7 +3319,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2715,7 +3333,7 @@
     <col min="7" max="7" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="120" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2738,7 +3356,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2757,7 +3375,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2778,7 +3396,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2797,7 +3415,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -2820,7 +3438,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
@@ -2843,7 +3461,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
@@ -2866,7 +3484,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -2889,7 +3507,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
@@ -2912,7 +3530,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
@@ -2935,7 +3553,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>39</v>
       </c>
@@ -2958,7 +3576,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -2979,7 +3597,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>45</v>
       </c>
@@ -3002,7 +3620,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>48</v>
       </c>
@@ -3025,7 +3643,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>51</v>
       </c>
@@ -3088,7 +3706,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>70</v>
       </c>
@@ -3130,7 +3748,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>75</v>
       </c>
@@ -3281,7 +3899,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -3301,7 +3919,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -3355,7 +3973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82736C2-F480-854C-B290-DAB951AC6262}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -3999,11 +4617,11 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4661,11 +5279,1339 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B584E7D-E6F2-F347-9272-EEAD6931DE59}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="4" max="4" width="66.5" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="6" max="6" width="36.5" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="59">
+        <v>8</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="59">
+        <v>8</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="59">
+        <v>8</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="59">
+        <v>8</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="59">
+        <v>8</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="59">
+        <v>8</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="59">
+        <v>8</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="59">
+        <v>8</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="56"/>
+      <c r="F12" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="59">
+        <v>8</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="59">
+        <v>8</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="59">
+        <v>8</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="56"/>
+      <c r="F15" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="59">
+        <v>8</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="59">
+        <v>8</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="59">
+        <v>8</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="59">
+        <v>8</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="59">
+        <v>8</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="56"/>
+      <c r="F20" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="59">
+        <v>8</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="59">
+        <v>8</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="59">
+        <v>8</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="58"/>
+      <c r="F23" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="59">
+        <v>8</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="59">
+        <v>8</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="58"/>
+      <c r="F25" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="59">
+        <v>8</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="58"/>
+      <c r="F26" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="63">
+        <v>8</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="63">
+        <v>8</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="66">
+        <v>8</v>
+      </c>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC35D81-1591-2A44-8438-2B6B24B8D0E5}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="4" max="4" width="66.5" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="6" max="6" width="36.5" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="42">
+        <v>8</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="42">
+        <v>8</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="42">
+        <v>8</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="42">
+        <v>8</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="42">
+        <v>8</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="42">
+        <v>8</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="42">
+        <v>8</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="31">
+        <v>8</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="31">
+        <v>8</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="42">
+        <v>8</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="31">
+        <v>8</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="31">
+        <v>8</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="42">
+        <v>8</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="42">
+        <v>8</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="42">
+        <v>8</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="42">
+        <v>8</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="42">
+        <v>8</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="42">
+        <v>8</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="42">
+        <v>8</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="42">
+        <v>8</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="31">
+        <v>8</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="42">
+        <v>8</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="34">
+        <v>8</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="47">
+        <v>8</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="50">
+        <v>8</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
